--- a/results/Output/온장면적_정확도.xlsx
+++ b/results/Output/온장면적_정확도.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/momo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/momo/PycharmProjects/TileTally_github/TileTally/results/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D787975-34BC-C44B-9719-037E1C07933C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C846A4B0-12B2-7740-86FB-82185612CE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="28800" xr2:uid="{76ACE393-2BAE-7B40-B386-8464A1655D24}"/>
   </bookViews>
   <sheets>
     <sheet name="온장면적오차율" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,9 +59,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -76,6 +76,13 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,14 +107,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -427,7 +437,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -757,13 +767,19 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="D18" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B18" s="3">
+        <v>13696</v>
+      </c>
+      <c r="C18" s="3">
+        <v>13652</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.32229709932610606</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>99.677702900673893</v>
       </c>
     </row>
     <row r="19" spans="1:5">
